--- a/dados/relatorios/miscelaneas/alerta_estoque_baixo.xlsx
+++ b/dados/relatorios/miscelaneas/alerta_estoque_baixo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -462,137 +462,147 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CONTROLE REMOTO BUDGET 00124BU0 00 UEI</t>
+          <t>CONECTOR FO CAMPO CPO SC APC FRKW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CONTROLE REMOTO VOZ LINUX UEI AVULSO</t>
+          <t>CONTROLE REMOTO BUDGET 00124BU0 00 UEI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CTRL REMOTO DIG. CR2FU UNIVERS</t>
+          <t>CONTROLE REMOTO VOZ LINUX UEI AVULSO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIVISOR RI 3S 1.2G HORIZONTAL BALANCEADO</t>
+          <t>CTRL REMOTO DIG. CR2FU UNIVERS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FITA ACO INOX 1/2 POLEGADA ROLO 25MT</t>
+          <t>DIVISOR RI 3S 1.2G HORIZONTAL BALANCEADO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FITA ACO INOX 3/4 POLEGADA ROLO 25MT</t>
+          <t>DIV_RI 3S 1GHZ H SOLD DESB 488</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FONTE ALIM 12V 1.5A ADS18FQ12C12018EPBR</t>
+          <t>FITA ACO INOX 1/2 POLEGADA ROLO 25MT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FONTE ALIM 12V 2.5A MSA C2500IC12030WBR</t>
+          <t>FITA ACO INOX 3/4 POLEGADA ROLO 25MT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FONTE ALIM 12V 3.3A MSA C3330IS12.0 40X</t>
+          <t>FONTE ALIM 12V 1.5A ADS18FQ12C12018EPBR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FONTE ALIM 12V 3A ADS 36FKJ 12 12036EPBR</t>
+          <t>FONTE ALIM 12V 2.5A MSA C2500IC12030WBR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FONTE ALIMEN 12V 4A ADS 48PI 12N 212048E</t>
+          <t>FONTE ALIM 12V 3.3A MSA C3330IS12.0 40X</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ISOLADOR COAXIAL QUADRADO - CISP-HR</t>
+          <t>FONTE ALIM 12V 3A ADS 36FKJ 12 12036EPBR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MINI ISOLADOR CPE P/CM DECODER</t>
+          <t>FONTE ALIMEN 12V 4A ADS 48PI 12N 212048E</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ISOLADOR COAXIAL QUADRADO - CISP-HR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
